--- a/betacom/working/output/Output.xlsx
+++ b/betacom/working/output/Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ja\moje\moje\uipath\betacom\working\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD0C457-D0F1-4FE1-B3F6-1BA186F4F2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A47676-D51C-4B67-8730-FA10BEDB1EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4212" yWindow="2568" windowWidth="17280" windowHeight="8964" xr2:uid="{0CB34D68-E816-480A-B3B3-92DF85DBED46}"/>
+    <workbookView xWindow="4560" yWindow="2916" windowWidth="17280" windowHeight="8964" xr2:uid="{0CB34D68-E816-480A-B3B3-92DF85DBED46}"/>
   </bookViews>
   <sheets>
     <sheet name="Dane" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="28">
   <si>
     <t>KRS</t>
   </si>
@@ -518,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE81495-D8A3-4F96-8C3F-A5583E8A5586}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD7"/>
@@ -762,6 +762,881 @@
         <v>27</v>
       </c>
       <c r="K7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>142065</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>5271022097</v>
+      </c>
+      <c r="D8">
+        <v>1096392000000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45271</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>419268</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>7532430615</v>
+      </c>
+      <c r="D9">
+        <v>16146722700000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45271</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>419268</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>7532430615</v>
+      </c>
+      <c r="D10">
+        <v>16146722700000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45271</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>951450</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>5252895298</v>
+      </c>
+      <c r="D11">
+        <v>52121249200000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45271</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12348</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>142065</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>5271022097</v>
+      </c>
+      <c r="D13">
+        <v>1096392000000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45271</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>419268</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>7532430615</v>
+      </c>
+      <c r="D14">
+        <v>16146722700000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45271</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>419268</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>7532430615</v>
+      </c>
+      <c r="D15">
+        <v>16146722700000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45271</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>951450</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>5252895298</v>
+      </c>
+      <c r="D16">
+        <v>52121249200000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45271</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>12348</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>142065</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>5271022097</v>
+      </c>
+      <c r="D18">
+        <v>1096392000000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45274</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>419268</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>7532430615</v>
+      </c>
+      <c r="D19">
+        <v>16146722700000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>419268</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>7532430615</v>
+      </c>
+      <c r="D20">
+        <v>16146722700000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="2">
+        <v>45274</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>951450</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>5252895298</v>
+      </c>
+      <c r="D21">
+        <v>52121249200000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45274</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>12348</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>142065</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>5271022097</v>
+      </c>
+      <c r="D23">
+        <v>1096392000000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2">
+        <v>45274</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>419268</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>7532430615</v>
+      </c>
+      <c r="D24">
+        <v>16146722700000</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45274</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>419268</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>7532430615</v>
+      </c>
+      <c r="D25">
+        <v>16146722700000</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45274</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>951450</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>5252895298</v>
+      </c>
+      <c r="D26">
+        <v>52121249200000</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45274</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>12348</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>142065</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>5271022097</v>
+      </c>
+      <c r="D28">
+        <v>1096392000000</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45274</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>419268</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>7532430615</v>
+      </c>
+      <c r="D29">
+        <v>16146722700000</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45274</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>419268</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>7532430615</v>
+      </c>
+      <c r="D30">
+        <v>16146722700000</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="2">
+        <v>45274</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>951450</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>5252895298</v>
+      </c>
+      <c r="D31">
+        <v>52121249200000</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45274</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>12348</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" t="s">
         <v>27</v>
       </c>
     </row>
